--- a/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
+++ b/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\helpsToolDropdown\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157EE1B2-7FB7-4672-8BB7-4D6770F43874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4E37F8-CF62-4064-A004-32333DB56B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSteps" sheetId="21" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TC08" sheetId="18" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TC01'!$H$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TC01'!$H$3:$H$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TC02'!$D$1:$D$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TC03'!$D$1:$D$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TC04'!$D$1:$D$71</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="566">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1739,13 +1739,19 @@
   </si>
   <si>
     <t>//button[@class='btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>HELPS Tool Document Upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,6 +1799,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1893,7 +1906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1961,53 +1974,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2046,6 +2019,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2064,6 +2049,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2348,9 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A085D24B-E8B7-4BA8-A7CE-CE88A5E4AA9B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2365,68 +2362,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="29" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -2434,22 +2431,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="48" t="s">
+      <c r="D4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -2457,91 +2454,91 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -2549,43 +2546,43 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="D9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="43" t="s">
+      <c r="C10" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -2593,22 +2590,22 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -2616,64 +2613,64 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="43" t="s">
+      <c r="D14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -2681,206 +2678,206 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="31" t="s">
+      <c r="D17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="43" t="s">
+      <c r="D18" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="37" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="31" t="s">
+      <c r="D19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="31" t="s">
+      <c r="E20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="31" t="s">
+      <c r="D22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="C23" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -2888,25 +2885,25 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="31" t="s">
+      <c r="D24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2974,7 +2971,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3003,7 +3000,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -3030,7 +3027,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -3057,7 +3054,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3084,7 +3081,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -3111,7 +3108,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -3138,7 +3135,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -3165,7 +3162,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -3192,7 +3189,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -3219,7 +3216,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -3246,7 +3243,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3275,7 +3272,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -3302,7 +3299,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -3329,7 +3326,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -3356,7 +3353,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -3383,7 +3380,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -3410,7 +3407,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -3437,7 +3434,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -3464,7 +3461,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -3491,7 +3488,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -3518,7 +3515,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -3545,7 +3542,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -3572,7 +3569,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -3599,7 +3596,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -3628,7 +3625,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -3655,7 +3652,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -3682,7 +3679,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -3709,7 +3706,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -3736,7 +3733,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -3763,7 +3760,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -3792,7 +3789,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -3846,7 +3843,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -3873,7 +3870,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -3900,7 +3897,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -3927,7 +3924,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -3954,7 +3951,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -3981,7 +3978,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -4008,7 +4005,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -4035,7 +4032,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -4062,7 +4059,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -4089,7 +4086,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -4116,7 +4113,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -4143,7 +4140,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -4170,7 +4167,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -4197,7 +4194,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -4224,7 +4221,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -4251,7 +4248,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -4278,7 +4275,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -4305,7 +4302,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -4332,7 +4329,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -4359,7 +4356,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -4386,7 +4383,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -4413,7 +4410,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -4440,7 +4437,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -4467,7 +4464,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -4494,7 +4491,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -4523,7 +4520,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -4550,7 +4547,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -4577,7 +4574,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -4604,7 +4601,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -4631,7 +4628,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -4658,7 +4655,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -4685,7 +4682,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -4712,7 +4709,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -4739,7 +4736,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -4890,10 +4887,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4968,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4981,1941 +4978,1951 @@
     <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="30" style="5" customWidth="1"/>
     <col min="8" max="8" width="27.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.36328125" customWidth="1"/>
     <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="3" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G3" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I3" s="54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B4" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="D4" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="27" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="D5" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="27" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="D6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H6" s="26">
         <v>12345</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="27" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="D7" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H7" s="26">
         <v>22</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="27" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="D8" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H8" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="27" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="27" t="s">
+      <c r="D9" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="27" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="27" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="D11" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H11" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="30" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H12" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I12" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="30" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="F13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H13" s="26">
         <v>12345</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I13" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="D14" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H14" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="27" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="D15" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H15" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="27" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="D16" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H16" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="27" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="D17" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H17" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="27" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="D18" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H18" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="27" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="D19" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H19" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="27" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="D20" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H20" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="27" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="D21" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H21" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="27" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="D22" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H22" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="27" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="27" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="D24" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H24" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="27" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="D25" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H25" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="27" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="D26" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H26" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="D27" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H27" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="27" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="D28" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H28" s="26">
         <v>0</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="27" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="27" t="s">
+      <c r="D29" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H29" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="27" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="27" t="s">
+      <c r="D30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H30" s="26">
         <v>0</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="27" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="27" t="s">
+      <c r="D31" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="27" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="27" t="s">
+      <c r="D32" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H32" s="26">
         <v>0</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B33" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="27" t="s">
+      <c r="D33" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H33" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="27" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="27" t="s">
+      <c r="D34" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H34" s="26">
         <v>0</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="27" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="D35" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H35" s="26">
         <v>0</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="27" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="D36" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H36" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I36" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="27" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="27" t="s">
+      <c r="D37" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H37" s="26">
         <v>0</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="27" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="27" t="s">
+      <c r="D38" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H38" s="26">
         <v>0</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="27" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="27" t="s">
+      <c r="D39" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H39" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="27" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="27" t="s">
+      <c r="D40" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H40" s="26">
         <v>0</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I40" s="26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="27" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="D41" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H41" s="26">
         <v>0</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="27" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="33" t="s">
+      <c r="D42" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H42" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I42" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="27" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="27" t="s">
+      <c r="D43" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H43" s="26">
         <v>0</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="27" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="27" t="s">
+      <c r="D44" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H44" s="26">
         <v>0</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I44" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="27" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="27" t="s">
+      <c r="D45" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H45" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I45" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="27" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="27" t="s">
+      <c r="D46" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H46" s="26">
         <v>0</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I46" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="27" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="27" t="s">
+      <c r="D47" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H47" s="26">
         <v>0</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I47" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="27" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="D48" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H48" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I48" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="27" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="27" t="s">
+      <c r="D49" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H49" s="26">
         <v>0</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="50" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="27" t="s">
+      <c r="B50" s="46"/>
+      <c r="C50" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="27" t="s">
+      <c r="D50" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H50" s="26">
         <v>0</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I50" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="27" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="27" t="s">
+      <c r="D51" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H51" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="27" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="27" t="s">
+      <c r="D52" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H52" s="26">
         <v>0</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I52" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="27" t="s">
+      <c r="B53" s="46"/>
+      <c r="C53" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="27" t="s">
+      <c r="D53" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H53" s="26">
         <v>0</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I53" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="27" t="s">
+      <c r="B54" s="46"/>
+      <c r="C54" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="27" t="s">
+      <c r="D54" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H54" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="55" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="27" t="s">
+      <c r="B55" s="46"/>
+      <c r="C55" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="27" t="s">
+      <c r="D55" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H55" s="26">
         <v>0</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I55" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="56" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="27" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="27" t="s">
+      <c r="D56" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H56" s="26">
         <v>0</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I56" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="27" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="27" t="s">
+      <c r="D57" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H57" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I57" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="58" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="27" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="27" t="s">
+      <c r="D58" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H58" s="26">
         <v>0</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I58" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="27" t="s">
+      <c r="B59" s="47"/>
+      <c r="C59" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="33" t="s">
+      <c r="D59" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H59" s="26">
         <v>0</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I59" s="26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B60" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="27" t="s">
+      <c r="D60" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H60" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="I60" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="27" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="27" t="s">
+      <c r="D61" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H61" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I61" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="27" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="27" t="s">
+      <c r="D62" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H62" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I62" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="27" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D63" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="27" t="s">
+      <c r="E63" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="H61" s="34" t="s">
+      <c r="H63" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I63" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="27" t="s">
+      <c r="B64" s="46"/>
+      <c r="C64" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E64" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="27" t="s">
+      <c r="F64" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="27" t="s">
+      <c r="I64" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="65" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="27" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D65" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="27" t="s">
+      <c r="E65" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H65" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="27" t="s">
+      <c r="I65" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="27" t="s">
+      <c r="B66" s="46"/>
+      <c r="C66" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D66" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="27" t="s">
+      <c r="E66" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="I66" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="27" t="s">
+      <c r="B67" s="46"/>
+      <c r="C67" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D67" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E67" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="27" t="s">
+      <c r="F67" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H67" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="27" t="s">
+      <c r="I67" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="27" t="s">
+      <c r="B68" s="46"/>
+      <c r="C68" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="27" t="s">
+      <c r="E68" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="H66" s="36" t="s">
+      <c r="H68" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="27" t="s">
+      <c r="I68" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="27" t="s">
+      <c r="B69" s="46"/>
+      <c r="C69" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D69" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="27" t="s">
+      <c r="E69" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="H69" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="27" t="s">
+      <c r="I69" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
+      <c r="B70" s="33"/>
+      <c r="C70" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="26" t="s">
+      <c r="D70" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
+      <c r="B71" s="33"/>
+      <c r="C71" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D71" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="26" t="s">
+      <c r="E71" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H71" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D72" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="26" t="s">
+      <c r="E72" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H72" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="39" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="B73" s="33"/>
+      <c r="C73" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D73" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="37" t="s">
+      <c r="E73" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="H73" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I73" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H71" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
+  <autoFilter ref="H3:H73" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
   <mergeCells count="5">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B57"/>
-    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B59"/>
+    <mergeCell ref="B60:B69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6977,7 +6984,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -7006,7 +7013,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -7033,7 +7040,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -7060,7 +7067,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -7087,7 +7094,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -7114,7 +7121,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -7141,7 +7148,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -7168,7 +7175,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -7195,7 +7202,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -7222,7 +7229,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -7249,7 +7256,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -7278,7 +7285,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -7305,7 +7312,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -7332,7 +7339,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -7359,7 +7366,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -7386,7 +7393,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -7413,7 +7420,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -7440,7 +7447,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -7467,7 +7474,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -7494,7 +7501,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -7521,7 +7528,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -7548,7 +7555,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -7575,7 +7582,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -7602,7 +7609,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -7631,7 +7638,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -7658,7 +7665,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -7685,7 +7692,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -7712,7 +7719,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -7739,7 +7746,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -7766,7 +7773,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -7795,7 +7802,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -7822,7 +7829,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -7849,7 +7856,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -7876,7 +7883,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -7903,7 +7910,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -7930,7 +7937,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -7957,7 +7964,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -7984,7 +7991,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -8011,7 +8018,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -8038,7 +8045,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -8065,7 +8072,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -8092,7 +8099,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -8119,7 +8126,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -8146,7 +8153,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -8173,7 +8180,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -8200,7 +8207,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -8227,7 +8234,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -8254,7 +8261,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -8281,7 +8288,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -8308,7 +8315,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -8335,7 +8342,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -8362,7 +8369,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -8389,7 +8396,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -8416,7 +8423,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -8443,7 +8450,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -8470,7 +8477,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -8497,7 +8504,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -8526,7 +8533,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -8553,7 +8560,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -8580,7 +8587,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -8607,7 +8614,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -8634,7 +8641,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -8661,7 +8668,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -8688,7 +8695,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -8715,7 +8722,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -8742,7 +8749,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -8933,7 +8940,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8962,7 +8969,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -8989,7 +8996,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -9016,7 +9023,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -9043,7 +9050,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -9070,7 +9077,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -9097,7 +9104,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -9124,7 +9131,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -9151,7 +9158,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -9178,7 +9185,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -9205,7 +9212,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -9234,7 +9241,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -9261,7 +9268,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -9288,7 +9295,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -9315,7 +9322,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -9342,7 +9349,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -9369,7 +9376,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -9396,7 +9403,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -9423,7 +9430,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -9450,7 +9457,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -9477,7 +9484,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -9504,7 +9511,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -9531,7 +9538,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -9558,7 +9565,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -9587,7 +9594,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -9614,7 +9621,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -9641,7 +9648,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -9668,7 +9675,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -9695,7 +9702,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -9722,7 +9729,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -9751,7 +9758,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -9778,7 +9785,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -9805,7 +9812,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -9832,7 +9839,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -9859,7 +9866,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -9886,7 +9893,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -9913,7 +9920,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -9940,7 +9947,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -9967,7 +9974,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -9994,7 +10001,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -10021,7 +10028,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -10048,7 +10055,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -10075,7 +10082,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -10102,7 +10109,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -10129,7 +10136,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -10156,7 +10163,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -10183,7 +10190,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -10210,7 +10217,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -10237,7 +10244,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -10264,7 +10271,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -10291,7 +10298,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -10318,7 +10325,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -10345,7 +10352,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -10372,7 +10379,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -10399,7 +10406,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -10426,7 +10433,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -10453,7 +10460,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -10482,7 +10489,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -10509,7 +10516,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -10536,7 +10543,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -10563,7 +10570,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -10590,7 +10597,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -10617,7 +10624,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -10644,7 +10651,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -10671,7 +10678,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -10698,7 +10705,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -10889,7 +10896,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -10918,7 +10925,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -10945,7 +10952,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -10972,7 +10979,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -10999,7 +11006,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -11026,7 +11033,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -11053,7 +11060,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -11080,7 +11087,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -11107,7 +11114,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -11134,7 +11141,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -11161,7 +11168,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -11190,7 +11197,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -11217,7 +11224,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -11244,7 +11251,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -11271,7 +11278,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -11298,7 +11305,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -11325,7 +11332,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -11352,7 +11359,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -11379,7 +11386,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -11406,7 +11413,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -11433,7 +11440,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -11460,7 +11467,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -11487,7 +11494,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -11514,7 +11521,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -11543,7 +11550,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -11570,7 +11577,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -11597,7 +11604,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -11624,7 +11631,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -11651,7 +11658,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -11678,7 +11685,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -11707,7 +11714,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -11734,7 +11741,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -11761,7 +11768,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -11788,7 +11795,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -11815,7 +11822,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -11842,7 +11849,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -11869,7 +11876,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -11896,7 +11903,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -11923,7 +11930,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -11950,7 +11957,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -11977,7 +11984,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -12004,7 +12011,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -12031,7 +12038,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -12058,7 +12065,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -12085,7 +12092,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -12112,7 +12119,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -12139,7 +12146,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -12166,7 +12173,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -12193,7 +12200,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -12220,7 +12227,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -12247,7 +12254,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -12274,7 +12281,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -12301,7 +12308,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -12328,7 +12335,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -12355,7 +12362,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -12382,7 +12389,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -12409,7 +12416,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -12438,7 +12445,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -12465,7 +12472,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -12492,7 +12499,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -12519,7 +12526,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -12546,7 +12553,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -12573,7 +12580,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -12600,7 +12607,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -12627,7 +12634,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -12654,7 +12661,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -12845,7 +12852,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -12874,7 +12881,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -12901,7 +12908,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -12928,7 +12935,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -12955,7 +12962,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -12982,7 +12989,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -13009,7 +13016,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -13036,7 +13043,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -13063,7 +13070,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -13090,7 +13097,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -13117,7 +13124,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -13146,7 +13153,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -13173,7 +13180,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -13200,7 +13207,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -13227,7 +13234,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -13254,7 +13261,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -13281,7 +13288,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -13308,7 +13315,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -13335,7 +13342,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -13362,7 +13369,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -13389,7 +13396,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -13416,7 +13423,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -13443,7 +13450,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -13470,7 +13477,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -13499,7 +13506,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -13526,7 +13533,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -13553,7 +13560,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -13580,7 +13587,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -13607,7 +13614,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -13634,7 +13641,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -13663,7 +13670,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -13690,7 +13697,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -13717,7 +13724,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -13744,7 +13751,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -13771,7 +13778,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -13798,7 +13805,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -13825,7 +13832,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -13852,7 +13859,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -13879,7 +13886,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -13906,7 +13913,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -13933,7 +13940,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -13960,7 +13967,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -13987,7 +13994,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -14014,7 +14021,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -14041,7 +14048,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -14068,7 +14075,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -14095,7 +14102,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -14122,7 +14129,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -14149,7 +14156,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -14176,7 +14183,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -14203,7 +14210,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -14230,7 +14237,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -14257,7 +14264,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -14284,7 +14291,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -14311,7 +14318,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -14338,7 +14345,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -14365,7 +14372,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -14394,7 +14401,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -14421,7 +14428,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -14448,7 +14455,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -14475,7 +14482,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -14502,7 +14509,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -14529,7 +14536,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -14556,7 +14563,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -14583,7 +14590,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -14610,7 +14617,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -14801,7 +14808,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -14830,7 +14837,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -14857,7 +14864,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -14884,7 +14891,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -14911,7 +14918,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -14938,7 +14945,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -14965,7 +14972,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -14992,7 +14999,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -15019,7 +15026,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -15046,7 +15053,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -15073,7 +15080,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -15102,7 +15109,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -15129,7 +15136,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -15156,7 +15163,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -15183,7 +15190,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -15210,7 +15217,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -15237,7 +15244,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -15264,7 +15271,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -15291,7 +15298,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -15318,7 +15325,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -15345,7 +15352,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -15372,7 +15379,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -15399,7 +15406,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -15426,7 +15433,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -15455,7 +15462,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -15482,7 +15489,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -15509,7 +15516,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -15536,7 +15543,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -15563,7 +15570,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -15590,7 +15597,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -15619,7 +15626,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -15646,7 +15653,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -15673,7 +15680,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -15700,7 +15707,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -15727,7 +15734,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -15754,7 +15761,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -15781,7 +15788,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -15808,7 +15815,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -15835,7 +15842,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -15862,7 +15869,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -15889,7 +15896,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -15916,7 +15923,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -15943,7 +15950,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -15970,7 +15977,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -15997,7 +16004,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -16024,7 +16031,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -16051,7 +16058,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -16078,7 +16085,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -16105,7 +16112,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -16132,7 +16139,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -16159,7 +16166,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -16186,7 +16193,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -16213,7 +16220,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -16240,7 +16247,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -16267,7 +16274,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -16294,7 +16301,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -16321,7 +16328,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -16350,7 +16357,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -16377,7 +16384,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -16404,7 +16411,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -16431,7 +16438,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -16458,7 +16465,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -16485,7 +16492,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -16512,7 +16519,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -16539,7 +16546,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -16566,7 +16573,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
@@ -16757,7 +16764,7 @@
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -16786,7 +16793,7 @@
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>200</v>
       </c>
@@ -16813,7 +16820,7 @@
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
@@ -16840,7 +16847,7 @@
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
@@ -16867,7 +16874,7 @@
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
@@ -16894,7 +16901,7 @@
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
@@ -16921,7 +16928,7 @@
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
@@ -16948,7 +16955,7 @@
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>269</v>
       </c>
@@ -16975,7 +16982,7 @@
       <c r="A10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
@@ -17002,7 +17009,7 @@
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
@@ -17029,7 +17036,7 @@
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -17058,7 +17065,7 @@
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21" t="s">
         <v>203</v>
       </c>
@@ -17085,7 +17092,7 @@
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21" t="s">
         <v>204</v>
       </c>
@@ -17112,7 +17119,7 @@
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
@@ -17139,7 +17146,7 @@
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>206</v>
       </c>
@@ -17166,7 +17173,7 @@
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="21" t="s">
         <v>207</v>
       </c>
@@ -17193,7 +17200,7 @@
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>208</v>
       </c>
@@ -17220,7 +17227,7 @@
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="21" t="s">
         <v>209</v>
       </c>
@@ -17247,7 +17254,7 @@
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>210</v>
       </c>
@@ -17274,7 +17281,7 @@
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="21" t="s">
         <v>211</v>
       </c>
@@ -17301,7 +17308,7 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>212</v>
       </c>
@@ -17328,7 +17335,7 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>213</v>
       </c>
@@ -17355,7 +17362,7 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>214</v>
       </c>
@@ -17382,7 +17389,7 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -17411,7 +17418,7 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="8" t="s">
         <v>216</v>
       </c>
@@ -17438,7 +17445,7 @@
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
@@ -17465,7 +17472,7 @@
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>218</v>
       </c>
@@ -17492,7 +17499,7 @@
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="21" t="s">
         <v>219</v>
       </c>
@@ -17519,7 +17526,7 @@
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="8" t="s">
         <v>220</v>
       </c>
@@ -17546,7 +17553,7 @@
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -17575,7 +17582,7 @@
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="8" t="s">
         <v>222</v>
       </c>
@@ -17602,7 +17609,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="8" t="s">
         <v>223</v>
       </c>
@@ -17629,7 +17636,7 @@
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
@@ -17656,7 +17663,7 @@
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>225</v>
       </c>
@@ -17683,7 +17690,7 @@
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="8" t="s">
         <v>226</v>
       </c>
@@ -17710,7 +17717,7 @@
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="21" t="s">
         <v>227</v>
       </c>
@@ -17737,7 +17744,7 @@
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>228</v>
       </c>
@@ -17764,7 +17771,7 @@
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="8" t="s">
         <v>229</v>
       </c>
@@ -17791,7 +17798,7 @@
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="21" t="s">
         <v>230</v>
       </c>
@@ -17818,7 +17825,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="8" t="s">
         <v>231</v>
       </c>
@@ -17845,7 +17852,7 @@
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
@@ -17872,7 +17879,7 @@
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21" t="s">
         <v>233</v>
       </c>
@@ -17899,7 +17906,7 @@
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="8" t="s">
         <v>234</v>
       </c>
@@ -17926,7 +17933,7 @@
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
@@ -17953,7 +17960,7 @@
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="21" t="s">
         <v>236</v>
       </c>
@@ -17980,7 +17987,7 @@
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="8" t="s">
         <v>237</v>
       </c>
@@ -18007,7 +18014,7 @@
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="8" t="s">
         <v>238</v>
       </c>
@@ -18034,7 +18041,7 @@
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="21" t="s">
         <v>239</v>
       </c>
@@ -18061,7 +18068,7 @@
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="8" t="s">
         <v>240</v>
       </c>
@@ -18088,7 +18095,7 @@
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
@@ -18115,7 +18122,7 @@
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21" t="s">
         <v>242</v>
       </c>
@@ -18142,7 +18149,7 @@
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="8" t="s">
         <v>243</v>
       </c>
@@ -18169,7 +18176,7 @@
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="8" t="s">
         <v>244</v>
       </c>
@@ -18196,7 +18203,7 @@
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="21" t="s">
         <v>245</v>
       </c>
@@ -18223,7 +18230,7 @@
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="8" t="s">
         <v>246</v>
       </c>
@@ -18250,7 +18257,7 @@
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>247</v>
       </c>
@@ -18277,7 +18284,7 @@
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -18306,7 +18313,7 @@
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
@@ -18333,7 +18340,7 @@
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="8" t="s">
         <v>250</v>
       </c>
@@ -18360,7 +18367,7 @@
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="8" t="s">
         <v>251</v>
       </c>
@@ -18387,7 +18394,7 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="8" t="s">
         <v>129</v>
       </c>
@@ -18414,7 +18421,7 @@
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="8" t="s">
         <v>130</v>
       </c>
@@ -18441,7 +18448,7 @@
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="8" t="s">
         <v>131</v>
       </c>
@@ -18468,7 +18475,7 @@
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
@@ -18495,7 +18502,7 @@
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="8" t="s">
         <v>130</v>
       </c>
@@ -18522,7 +18529,7 @@
       <c r="A67" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="8" t="s">
         <v>317</v>
       </c>
